--- a/public/sample/consigner_bulk_import.xlsx
+++ b/public/sample/consigner_bulk_import.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00471\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00010\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6CBFF7-9877-4139-87C6-00067885C7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A4E3B8-5276-4905-8A3D-9867D93DB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0451C7E1-EA1E-46C7-BD19-57863157B07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sr No.</t>
   </si>
@@ -28,67 +43,70 @@
     <t>Nick Name</t>
   </si>
   <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>Gst Number</t>
+  </si>
+  <si>
     <t>Contact Name</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address Line1</t>
+  </si>
+  <si>
+    <t>Address Line2</t>
+  </si>
+  <si>
+    <t>Address Line3</t>
+  </si>
+  <si>
+    <t>Address Line4</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Jabli</t>
   </si>
   <si>
+    <t>puri</t>
+  </si>
+  <si>
     <t>GDS767HF78K3456</t>
   </si>
   <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>JGGHG654656GF23</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>HJGFGHF47853674</t>
-  </si>
-  <si>
-    <t>Contnmsadf</t>
-  </si>
-  <si>
-    <t>Gst Number</t>
-  </si>
-  <si>
-    <t>Legal Name</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>agrotech ltd</t>
+  </si>
+  <si>
+    <t>near bestech location</t>
   </si>
   <si>
     <t>testcnr@yopmail.com</t>
   </si>
   <si>
-    <t>add mohali</t>
+    <t>mohali</t>
   </si>
   <si>
     <t>secor 66</t>
@@ -98,44 +116,32 @@
   </si>
   <si>
     <t>punjab</t>
-  </si>
-  <si>
-    <t>near bestech location</t>
-  </si>
-  <si>
-    <t>agrotech ltd</t>
-  </si>
-  <si>
-    <t>puri</t>
-  </si>
-  <si>
-    <t>janak</t>
-  </si>
-  <si>
-    <t>Himani</t>
-  </si>
-  <si>
-    <t>rajori</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -144,9 +150,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -170,22 +174,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,158 +497,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75A53E2-04BB-4E8A-BEFF-EDEE00A6E289}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>8765435456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L2">
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2">
         <v>160066</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2">
+      <c r="P2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8974365744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8798327658</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{A4486BA5-ED6D-4A09-96D8-8E635240FB3A}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{953050FB-A105-489E-A298-2FBDF9A455FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/sample/consigner_bulk_import.xlsx
+++ b/public/sample/consigner_bulk_import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00010\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A4E3B8-5276-4905-8A3D-9867D93DB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65BB5A-6CE0-4283-A65F-ACF475997D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0451C7E1-EA1E-46C7-BD19-57863157B07E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sr No.</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Jabli</t>
@@ -498,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75A53E2-04BB-4E8A-BEFF-EDEE00A6E289}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,55 +552,49 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="3">
         <v>8765435456</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="O2">
         <v>160066</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample/consigner_bulk_import.xlsx
+++ b/public/sample/consigner_bulk_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65BB5A-6CE0-4283-A65F-ACF475997D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC025E8-53AB-451F-ACDC-66D45F12BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0451C7E1-EA1E-46C7-BD19-57863157B07E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0451C7E1-EA1E-46C7-BD19-57863157B07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>agrotech ltd</t>
   </si>
   <si>
-    <t>near bestech location</t>
-  </si>
-  <si>
     <t>testcnr@yopmail.com</t>
   </si>
   <si>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>punjab</t>
+  </si>
+  <si>
+    <t>Location Id</t>
+  </si>
+  <si>
+    <t>Regional Client Id</t>
   </si>
 </sst>
 </file>
@@ -495,15 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75A53E2-04BB-4E8A-BEFF-EDEE00A6E289}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,83 +527,89 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="3">
         <v>8765435456</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="P2">
+        <v>160066</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2">
-        <v>160066</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{953050FB-A105-489E-A298-2FBDF9A455FD}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{953050FB-A105-489E-A298-2FBDF9A455FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
